--- a/biology/Botanique/Olea_europaea_subsp._cuspidata/Olea_europaea_subsp._cuspidata.xlsx
+++ b/biology/Botanique/Olea_europaea_subsp._cuspidata/Olea_europaea_subsp._cuspidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea europaea subsp. cuspidata (Wall ex G. Don) est une sous-espèce d'Olea europaea L. dont l'olivier européen (Olea europaea L. europaea) est une autre sous-espèce. Elle appartient à la famille des Oleaceae. Elle est parfois appelée « Bois d'olive noir » ou « Olivier brun ». En langue anglaise : African olive ou Wild olive.
 Ce sont des arbres assez petits. Cependant en Éthiopie, comme à Lalibela, dans les enclos des églises, ils peuvent atteindre près de vingt mètres de haut.
@@ -512,18 +524,11 @@
           <t>Description botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « cuspidata » pourrait se rapporter à la pointe de la feuille ou du fruit.
-Port et appareil végétatif
-Cette espèce d'olivier comprend de nombreux arbres toujours verts dont la taille varie entre 2 et 15 m de hauteur.
-Feuilles
-Les feuilles sont opposées, décussées et entières. Leur taille est comprise entre 3 et 3 à7 cm de longueur et 0,8 et 0,8 à2.5 cm de largeur. La feuille d'apex est aigüe avec une petite pointe, la base est atténuée en coin. La marge des feuilles est entière et enroulée, la face supérieure est grisâtre-verte et luisante. La face inférieure a un revêtement dense d'écailles argentées, dorées ou brunes. La nervation est bien visible sur la face supérieure et masquée sur la face inférieure. Le pétiole est long d'au moins 10 mm .
-Ces feuilles ressemblent à celle de l'olivier cultivé (Olea europaea europaea europaea) mais la pilosité des faces abaxiales des feuilles n'est jamais aussi développée que chez cette dernière espèce. Cet indumentum est parsemé de taches de couleur rouge-rouille.
-Fleurs
-Les fleurs sont groupées en panicules ou en grappes de 50 à 60 mm long. Le calice est quadrilobé et mesure 1 mm de longueur. La corolle est blanc-verdâtre ou crème. Le tube est de 1 à 2 mm de longueur. Les lobes sont de 3 mm de longueur et réfléchis à l'anthèse. Les deux étamines sont fusionnées près du sommet du tube de la corolle avec des anthères bilobèes.
-Fruits
-Le fruit est une drupe dont la forme varie de sphérique à ellipsoide, le diamètre étant de 6 mm et la longueur allant de 15 à 25 mm. La drupe est charnue, glauque avec une bonne brillance quand elle est mûre, allant vers le pourpre-noir. Les arbres fleurissent habituellement au printemps.
 </t>
         </is>
       </c>
@@ -549,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Description botanique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le bois est très apprécié. Il est durable et utilisé pour l'ébénisterie fine et le tournage.
-Cette espèce est cultivée comme arbre d'ornement pour les parcs et jardins. Elle est aussi utilisée pour la production d'olives de table et d'huile. Des greffes de cultivars de l'Olea europaea ont été couronnées de succès et permettent de produire de bonnes olives.
+          <t>Port et appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce d'olivier comprend de nombreux arbres toujours verts dont la taille varie entre 2 et 15 m de hauteur.
 </t>
         </is>
       </c>
@@ -581,12 +591,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont opposées, décussées et entières. Leur taille est comprise entre 3 et 3 à7 cm de longueur et 0,8 et 0,8 à2.5 cm de largeur. La feuille d'apex est aigüe avec une petite pointe, la base est atténuée en coin. La marge des feuilles est entière et enroulée, la face supérieure est grisâtre-verte et luisante. La face inférieure a un revêtement dense d'écailles argentées, dorées ou brunes. La nervation est bien visible sur la face supérieure et masquée sur la face inférieure. Le pétiole est long d'au moins 10 mm .
+Ces feuilles ressemblent à celle de l'olivier cultivé (Olea europaea europaea europaea) mais la pilosité des faces abaxiales des feuilles n'est jamais aussi développée que chez cette dernière espèce. Cet indumentum est parsemé de taches de couleur rouge-rouille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont groupées en panicules ou en grappes de 50 à 60 mm long. Le calice est quadrilobé et mesure 1 mm de longueur. La corolle est blanc-verdâtre ou crème. Le tube est de 1 à 2 mm de longueur. Les lobes sont de 3 mm de longueur et réfléchis à l'anthèse. Les deux étamines sont fusionnées près du sommet du tube de la corolle avec des anthères bilobèes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une drupe dont la forme varie de sphérique à ellipsoide, le diamètre étant de 6 mm et la longueur allant de 15 à 25 mm. La drupe est charnue, glauque avec une bonne brillance quand elle est mûre, allant vers le pourpre-noir. Les arbres fleurissent habituellement au printemps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est très apprécié. Il est durable et utilisé pour l'ébénisterie fine et le tournage.
+Cette espèce est cultivée comme arbre d'ornement pour les parcs et jardins. Elle est aussi utilisée pour la production d'olives de table et d'huile. Des greffes de cultivars de l'Olea europaea ont été couronnées de succès et permettent de produire de bonnes olives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux sont (sur les 30 reconnus) [1]:
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux sont (sur les 30 reconnus) :
 O. indica Kleinhof ex Burn. F. Fl. Indica: 6 (6 mars-5 avril 1758). Type "Java", Kleynhof [sic] (holotype G).
 O. africana Mill., Gard. Dict. ed. 8, Olea 4 (16 avril 1768). Type: Cult. Hort. Chelsea (holotype BM)
 O. chrysophylla Lam., Tab. Encycl. 1 :2 (1791). Type: Mauritanie (holotype P, n.v. ; IDC microfiche 6207, 432/8).
@@ -623,31 +781,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Olea_europaea_subsp._cuspidata</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cet olivier en/au :
 Arabie saoudite : Djebel Faifa (2 août 1982) ;
@@ -656,7 +816,7 @@
 Iran : prov. de Zahedan (19 mars 1971) ;
 Afghanistan : prov. de Konar (8 juin 1969) ;
 Pakistan : Quetta (mai 1965) ;
-Cachemire[2] : sud de Sutlej, au-dessus de Wangtu (14 août 1847) ;
+Cachemire : sud de Sutlej, au-dessus de Wangtu (14 août 1847) ;
 Inde : Uttar Pradesh, Kumaun (sd) ;
 Chine : Sichuan Litang  (2 juin 1914) ;
 Égypte : Djebel Elba, Wadi Darween (6 fev. 1933) ;
@@ -681,36 +841,38 @@
 Île Maurice: Baie du Cap (16 avril 1974) ;
 Île de La Réunion : cirque de Mafate.
 Olea europaea subsp. cuspidata est indigène en Afrique du Sud (au Zimbabwe), régions à partir desquelles il s'est répandu, au Moyen-Orient, au Pakistan et de l'Inde à la Chine. Les forêts subtropicales sèches d'Olea europaea subsp. cuspidata sont situées dans les forêts à plantes dicotylédones de l'écorégion de l'Himalaya.
-Au XIXe siècle il a été introduit sur le territoire de l'Australie à des fins économiques (Spennemann &amp; Allen, 2000; Bass et al, 2006). Depuis 1960, des populations naturalisées d'O. e. cuspidata ont été trouvées dans l'archipel d'Hawaï (Starr et al., 2003). Il a été également introduit dans l'Île Norfolk (territoire australien autogouverné)[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Olea_europaea_subsp._cuspidata</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Au XIXe siècle il a été introduit sur le territoire de l'Australie à des fins économiques (Spennemann &amp; Allen, 2000; Bass et al, 2006). Depuis 1960, des populations naturalisées d'O. e. cuspidata ont été trouvées dans l'archipel d'Hawaï (Starr et al., 2003). Il a été également introduit dans l'Île Norfolk (territoire australien autogouverné).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Intérêt de cette espèce</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a une répartition mondiale importante (Afrique du Sud à Afrique du Nord-Est et d'Asie du Sud-Est au Yunnan-Sichuan en Chine). Certains auteurs (Lamaret et al. (2000)) ont suggéré que les représentants l’Asie du Centre et du Sud-Est pouvaient constituer un taxon distinct de l’Africain : à cet effet, une analyse ultérieure a été demandée.
 Les feuilles de ces sous-espèces ressemblent à celles des oliviers cultivé, bien que quelquefois en Asie du SO, spécialement mais pas de manière consistante ni exclusivement, l’indumentum abaxial est distinctement teinté de rouge-rouille. Le degré de charnu des drupes varie mais n’est jamais aussi développé que dans la subsp. europaea. Il a été rapporté qu’une huile brute est extraite des populations sauvages d’Oman.
@@ -723,31 +885,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Olea_europaea_subsp._cuspidata</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Reproduction et protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La pollinisation est assurée par le vent (anémogamie). Les fruits (olives) sont ingérés, à maturité, par les oiseaux et les petits mammifères. Le passage dans le tube digestif stimule la germination des noyaux rejetés dans les fèces.
 Ce taxon semble maintenir ses populations sauvages. En Australie, il est surveillé car susceptible de devenir une plante envahissante. Il en va de même à Hawaï où les oiseaux jouent un rôle actif dans la propagation de cette plante jugée invasive. Des mesures ont été prises pour décourager les particuliers de planter cet olivier.
@@ -755,31 +919,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Olea_europaea_subsp._cuspidata</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._cuspidata</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Une vue rapprochée du feuillage.
